--- a/rocketmq/RocketMQ Benchmark case.xlsx
+++ b/rocketmq/RocketMQ Benchmark case.xlsx
@@ -1,22 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640"/>
+    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640" activeTab="6"/>
   </bookViews>
   <sheets>
-    <sheet name="边发边收" sheetId="1" r:id="rId1"/>
-    <sheet name="堆积消费" sheetId="2" r:id="rId2"/>
-    <sheet name="消息实时性" sheetId="3" r:id="rId3"/>
+    <sheet name="正常场景" sheetId="1" r:id="rId1"/>
+    <sheet name="刷盘方式" sheetId="6" r:id="rId2"/>
+    <sheet name="HA" sheetId="7" r:id="rId3"/>
+    <sheet name="堆积消费" sheetId="2" r:id="rId4"/>
+    <sheet name="消息实时性" sheetId="3" r:id="rId5"/>
+    <sheet name="其他机器" sheetId="5" r:id="rId6"/>
+    <sheet name="Sheet1" sheetId="8" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="54">
   <si>
     <t>LOAD</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -104,7 +108,257 @@
   </si>
   <si>
     <t>MESSAGE
-RT</t>
+RT(ms)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试目的：
+队列数、消息大小不同对性能的影响</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试目的：
+刷盘方式对于性能的影响</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>异步刷盘</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>同步刷盘</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试目的：
+不同HA方式对于性能的影响</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>同步双写</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试目的：
+不同磁盘类型对于性能的影响</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">CASE </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>异步复制</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RAID SAS 10000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RAID SATA 7500</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RAID SATA 10000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RAID SSD</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CPU</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MACHINE_A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>48G</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>RAID SAS 15000</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>转</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1Gbps(119MB)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>机器类型名</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>内存</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>磁盘</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>网络</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>16</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">核
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Candara"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Intel(R) Xeon(R) CPU L5630  @ 2.13GHz</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MACHINE_B</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>RAID SAS 10000</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>转</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>RAID SATA 7500</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>转</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>RAID SATA 10000</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>转</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fusion-IO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10Gbps(1190MB)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MACHINE_C</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MACHINE_D</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MACHINE_E</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MACHINE_F</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MACHINE_G</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -112,7 +366,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="4">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -143,8 +397,36 @@
       <family val="2"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Candara"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Candara"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -169,8 +451,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="4">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -221,13 +509,37 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FFFFFFFF"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -269,6 +581,27 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -636,31 +969,48 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B2:N12"/>
+  <dimension ref="B1:N13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L21" sqref="L21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="O4" sqref="O4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="3" style="1" customWidth="1"/>
     <col min="2" max="2" width="5" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5.5" style="2" customWidth="1"/>
-    <col min="4" max="4" width="8.5" style="2" customWidth="1"/>
-    <col min="5" max="5" width="5.875" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.375" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.375" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="5.375" style="3" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="5" style="3" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="5.5" style="2" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="7" style="2" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="5.25" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="5.75" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="6.25" style="2" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="6.375" style="2" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="5.875" style="2" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="7.375" style="2" bestFit="1" customWidth="1"/>
     <col min="15" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
+    <row r="1" spans="2:14" ht="72" customHeight="1">
+      <c r="B1" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="15"/>
+      <c r="H1" s="15"/>
+      <c r="I1" s="15"/>
+      <c r="J1" s="15"/>
+      <c r="K1" s="15"/>
+      <c r="L1" s="15"/>
+      <c r="M1" s="15"/>
+      <c r="N1" s="15"/>
+    </row>
     <row r="2" spans="2:14" ht="54" customHeight="1">
       <c r="B2" s="5" t="s">
         <v>5</v>
@@ -708,7 +1058,7 @@
         <v>1</v>
       </c>
       <c r="C3" s="6">
-        <v>1000</v>
+        <v>1024</v>
       </c>
       <c r="D3" s="6">
         <v>16</v>
@@ -726,11 +1076,11 @@
     </row>
     <row r="4" spans="2:14" ht="30" customHeight="1">
       <c r="B4" s="6">
-        <f t="shared" ref="B4:B12" si="0">ROW()-2</f>
+        <f t="shared" ref="B4:B13" si="0">ROW()-2</f>
         <v>2</v>
       </c>
       <c r="C4" s="6">
-        <v>1000</v>
+        <v>1024</v>
       </c>
       <c r="D4" s="6">
         <v>128</v>
@@ -752,7 +1102,7 @@
         <v>3</v>
       </c>
       <c r="C5" s="6">
-        <v>1000</v>
+        <v>1024</v>
       </c>
       <c r="D5" s="6">
         <v>1024</v>
@@ -774,7 +1124,7 @@
         <v>4</v>
       </c>
       <c r="C6" s="12">
-        <v>1000</v>
+        <v>1024</v>
       </c>
       <c r="D6" s="12">
         <v>2048</v>
@@ -790,13 +1140,13 @@
       <c r="M6" s="12"/>
       <c r="N6" s="12"/>
     </row>
-    <row r="7" spans="2:14" ht="30" customHeight="1" thickBot="1">
+    <row r="7" spans="2:14" ht="30" customHeight="1">
       <c r="B7" s="8">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="C7" s="8">
-        <v>1000</v>
+      <c r="C7" s="6">
+        <v>1024</v>
       </c>
       <c r="D7" s="8">
         <v>4096</v>
@@ -812,49 +1162,49 @@
       <c r="M7" s="8"/>
       <c r="N7" s="8"/>
     </row>
-    <row r="8" spans="2:14" ht="30" customHeight="1">
-      <c r="B8" s="10">
+    <row r="8" spans="2:14" ht="30" customHeight="1" thickBot="1">
+      <c r="B8" s="8">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="C8" s="10">
-        <v>5000</v>
-      </c>
-      <c r="D8" s="10">
-        <v>1024</v>
-      </c>
-      <c r="E8" s="10"/>
-      <c r="F8" s="11"/>
-      <c r="G8" s="11"/>
-      <c r="H8" s="10"/>
-      <c r="I8" s="10"/>
-      <c r="J8" s="10"/>
-      <c r="K8" s="10"/>
-      <c r="L8" s="10"/>
-      <c r="M8" s="10"/>
-      <c r="N8" s="10"/>
+      <c r="C8" s="6">
+        <v>1024</v>
+      </c>
+      <c r="D8" s="8">
+        <v>8192</v>
+      </c>
+      <c r="E8" s="8"/>
+      <c r="F8" s="9"/>
+      <c r="G8" s="9"/>
+      <c r="H8" s="8"/>
+      <c r="I8" s="8"/>
+      <c r="J8" s="8"/>
+      <c r="K8" s="8"/>
+      <c r="L8" s="8"/>
+      <c r="M8" s="8"/>
+      <c r="N8" s="8"/>
     </row>
     <row r="9" spans="2:14" ht="30" customHeight="1">
-      <c r="B9" s="6">
+      <c r="B9" s="10">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="C9" s="6">
-        <v>10000</v>
-      </c>
-      <c r="D9" s="6">
-        <v>1024</v>
-      </c>
-      <c r="E9" s="6"/>
-      <c r="F9" s="7"/>
-      <c r="G9" s="7"/>
-      <c r="H9" s="6"/>
-      <c r="I9" s="6"/>
-      <c r="J9" s="6"/>
-      <c r="K9" s="6"/>
-      <c r="L9" s="6"/>
-      <c r="M9" s="6"/>
-      <c r="N9" s="6"/>
+      <c r="C9" s="10">
+        <v>5000</v>
+      </c>
+      <c r="D9" s="10">
+        <v>1024</v>
+      </c>
+      <c r="E9" s="10"/>
+      <c r="F9" s="11"/>
+      <c r="G9" s="11"/>
+      <c r="H9" s="10"/>
+      <c r="I9" s="10"/>
+      <c r="J9" s="10"/>
+      <c r="K9" s="10"/>
+      <c r="L9" s="10"/>
+      <c r="M9" s="10"/>
+      <c r="N9" s="10"/>
     </row>
     <row r="10" spans="2:14" ht="30" customHeight="1">
       <c r="B10" s="6">
@@ -862,7 +1212,7 @@
         <v>8</v>
       </c>
       <c r="C10" s="6">
-        <v>20000</v>
+        <v>10000</v>
       </c>
       <c r="D10" s="6">
         <v>1024</v>
@@ -884,7 +1234,7 @@
         <v>9</v>
       </c>
       <c r="C11" s="6">
-        <v>40000</v>
+        <v>20000</v>
       </c>
       <c r="D11" s="6">
         <v>1024</v>
@@ -906,7 +1256,7 @@
         <v>10</v>
       </c>
       <c r="C12" s="6">
-        <v>100000</v>
+        <v>40000</v>
       </c>
       <c r="D12" s="6">
         <v>1024</v>
@@ -922,7 +1272,32 @@
       <c r="M12" s="6"/>
       <c r="N12" s="6"/>
     </row>
+    <row r="13" spans="2:14" ht="30" customHeight="1">
+      <c r="B13" s="6">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="C13" s="6">
+        <v>100000</v>
+      </c>
+      <c r="D13" s="6">
+        <v>1024</v>
+      </c>
+      <c r="E13" s="6"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="6"/>
+      <c r="I13" s="6"/>
+      <c r="J13" s="6"/>
+      <c r="K13" s="6"/>
+      <c r="L13" s="6"/>
+      <c r="M13" s="6"/>
+      <c r="N13" s="6"/>
+    </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B1:N1"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" orientation="landscape" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
@@ -931,10 +1306,250 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="B1:N4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:N1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetData>
+    <row r="1" spans="2:14" s="1" customFormat="1" ht="72" customHeight="1">
+      <c r="B1" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="15"/>
+      <c r="H1" s="15"/>
+      <c r="I1" s="15"/>
+      <c r="J1" s="15"/>
+      <c r="K1" s="15"/>
+      <c r="L1" s="15"/>
+      <c r="M1" s="15"/>
+      <c r="N1" s="15"/>
+    </row>
+    <row r="2" spans="2:14" s="1" customFormat="1" ht="54" customHeight="1">
+      <c r="B2" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="K2" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="L2" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="M2" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="N2" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="2:14" s="1" customFormat="1" ht="30" customHeight="1">
+      <c r="B3" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" s="12">
+        <v>1024</v>
+      </c>
+      <c r="D3" s="12">
+        <v>2048</v>
+      </c>
+      <c r="E3" s="12"/>
+      <c r="F3" s="13"/>
+      <c r="G3" s="13"/>
+      <c r="H3" s="12"/>
+      <c r="I3" s="12"/>
+      <c r="J3" s="12"/>
+      <c r="K3" s="12"/>
+      <c r="L3" s="12"/>
+      <c r="M3" s="12"/>
+      <c r="N3" s="12"/>
+    </row>
+    <row r="4" spans="2:14" s="1" customFormat="1" ht="30" customHeight="1">
+      <c r="B4" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" s="12">
+        <v>1024</v>
+      </c>
+      <c r="D4" s="12">
+        <v>2048</v>
+      </c>
+      <c r="E4" s="12"/>
+      <c r="F4" s="13"/>
+      <c r="G4" s="13"/>
+      <c r="H4" s="12"/>
+      <c r="I4" s="12"/>
+      <c r="J4" s="12"/>
+      <c r="K4" s="12"/>
+      <c r="L4" s="12"/>
+      <c r="M4" s="12"/>
+      <c r="N4" s="12"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B1:N1"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="B1:N4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetData>
+    <row r="1" spans="2:14" s="1" customFormat="1" ht="72" customHeight="1">
+      <c r="B1" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="15"/>
+      <c r="H1" s="15"/>
+      <c r="I1" s="15"/>
+      <c r="J1" s="15"/>
+      <c r="K1" s="15"/>
+      <c r="L1" s="15"/>
+      <c r="M1" s="15"/>
+      <c r="N1" s="15"/>
+    </row>
+    <row r="2" spans="2:14" s="1" customFormat="1" ht="54" customHeight="1">
+      <c r="B2" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="K2" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="L2" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="M2" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="N2" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="2:14" s="1" customFormat="1" ht="30" customHeight="1">
+      <c r="B3" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C3" s="6">
+        <v>1024</v>
+      </c>
+      <c r="D3" s="6">
+        <v>2048</v>
+      </c>
+      <c r="E3" s="6"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="6"/>
+      <c r="I3" s="6"/>
+      <c r="J3" s="6"/>
+      <c r="K3" s="6"/>
+      <c r="L3" s="6"/>
+      <c r="M3" s="6"/>
+      <c r="N3" s="6"/>
+    </row>
+    <row r="4" spans="2:14" s="1" customFormat="1" ht="30" customHeight="1">
+      <c r="B4" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" s="6">
+        <v>1024</v>
+      </c>
+      <c r="D4" s="6">
+        <v>2048</v>
+      </c>
+      <c r="E4" s="6"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="7"/>
+      <c r="H4" s="6"/>
+      <c r="I4" s="6"/>
+      <c r="J4" s="6"/>
+      <c r="K4" s="6"/>
+      <c r="L4" s="6"/>
+      <c r="M4" s="6"/>
+      <c r="N4" s="6"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B1:N1"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B2:O10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F31" sqref="F31"/>
+      <selection activeCell="Q5" sqref="Q5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1007,7 +1622,7 @@
         <v>1</v>
       </c>
       <c r="C3" s="6">
-        <v>1000</v>
+        <v>1024</v>
       </c>
       <c r="D3" s="6">
         <v>16</v>
@@ -1032,7 +1647,7 @@
         <v>2</v>
       </c>
       <c r="C4" s="6">
-        <v>1000</v>
+        <v>1024</v>
       </c>
       <c r="D4" s="6">
         <v>128</v>
@@ -1057,7 +1672,7 @@
         <v>3</v>
       </c>
       <c r="C5" s="6">
-        <v>1000</v>
+        <v>1024</v>
       </c>
       <c r="D5" s="6">
         <v>1024</v>
@@ -1082,7 +1697,7 @@
         <v>4</v>
       </c>
       <c r="C6" s="12">
-        <v>1000</v>
+        <v>1024</v>
       </c>
       <c r="D6" s="12">
         <v>2048</v>
@@ -1107,7 +1722,7 @@
         <v>5</v>
       </c>
       <c r="C7" s="6">
-        <v>1000</v>
+        <v>1024</v>
       </c>
       <c r="D7" s="6">
         <v>4096</v>
@@ -1132,7 +1747,7 @@
         <v>6</v>
       </c>
       <c r="C8" s="6">
-        <v>1000</v>
+        <v>1024</v>
       </c>
       <c r="D8" s="6">
         <v>1024</v>
@@ -1157,7 +1772,7 @@
         <v>7</v>
       </c>
       <c r="C9" s="6">
-        <v>1000</v>
+        <v>1024</v>
       </c>
       <c r="D9" s="6">
         <v>1024</v>
@@ -1182,7 +1797,7 @@
         <v>8</v>
       </c>
       <c r="C10" s="6">
-        <v>1000</v>
+        <v>1024</v>
       </c>
       <c r="D10" s="6">
         <v>1024</v>
@@ -1208,12 +1823,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B2:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="A3" sqref="A3:XFD3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1"/>
@@ -1247,7 +1862,7 @@
         <v>1</v>
       </c>
       <c r="C3" s="6">
-        <v>1000</v>
+        <v>1024</v>
       </c>
       <c r="D3" s="6">
         <v>512</v>
@@ -1258,24 +1873,340 @@
       <c r="H3" s="6"/>
     </row>
     <row r="4" spans="2:8" ht="30" customHeight="1">
-      <c r="B4" s="12">
+      <c r="B4" s="6">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="C4" s="12">
-        <v>1000</v>
-      </c>
-      <c r="D4" s="12">
+      <c r="C4" s="6">
+        <v>1024</v>
+      </c>
+      <c r="D4" s="6">
         <v>2048</v>
       </c>
-      <c r="E4" s="12"/>
-      <c r="F4" s="13"/>
-      <c r="G4" s="13"/>
-      <c r="H4" s="12"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="7"/>
+      <c r="H4" s="6"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="B1:N6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="5.5" customWidth="1"/>
+    <col min="2" max="2" width="13" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:14" ht="67.5" customHeight="1">
+      <c r="B1" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="15"/>
+      <c r="H1" s="15"/>
+      <c r="I1" s="15"/>
+      <c r="J1" s="15"/>
+      <c r="K1" s="15"/>
+      <c r="L1" s="15"/>
+      <c r="M1" s="15"/>
+      <c r="N1" s="15"/>
+    </row>
+    <row r="2" spans="2:14" s="1" customFormat="1" ht="54" customHeight="1">
+      <c r="B2" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="K2" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="L2" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="M2" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="N2" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="2:14" s="1" customFormat="1" ht="30" customHeight="1">
+      <c r="B3" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C3" s="6">
+        <v>1024</v>
+      </c>
+      <c r="D3" s="6">
+        <v>2048</v>
+      </c>
+      <c r="E3" s="6"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="6"/>
+      <c r="I3" s="6"/>
+      <c r="J3" s="6"/>
+      <c r="K3" s="6"/>
+      <c r="L3" s="6"/>
+      <c r="M3" s="6"/>
+      <c r="N3" s="6"/>
+    </row>
+    <row r="4" spans="2:14" s="1" customFormat="1" ht="30" customHeight="1">
+      <c r="B4" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="C4" s="6">
+        <v>1024</v>
+      </c>
+      <c r="D4" s="6">
+        <v>2048</v>
+      </c>
+      <c r="E4" s="6"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="7"/>
+      <c r="H4" s="6"/>
+      <c r="I4" s="6"/>
+      <c r="J4" s="6"/>
+      <c r="K4" s="6"/>
+      <c r="L4" s="6"/>
+      <c r="M4" s="6"/>
+      <c r="N4" s="6"/>
+    </row>
+    <row r="5" spans="2:14" s="1" customFormat="1" ht="30" customHeight="1">
+      <c r="B5" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C5" s="6">
+        <v>1024</v>
+      </c>
+      <c r="D5" s="6">
+        <v>2048</v>
+      </c>
+      <c r="E5" s="6"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="6"/>
+      <c r="I5" s="6"/>
+      <c r="J5" s="6"/>
+      <c r="K5" s="6"/>
+      <c r="L5" s="6"/>
+      <c r="M5" s="6"/>
+      <c r="N5" s="6"/>
+    </row>
+    <row r="6" spans="2:14" s="1" customFormat="1" ht="30" customHeight="1">
+      <c r="B6" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="C6" s="6">
+        <v>1024</v>
+      </c>
+      <c r="D6" s="6">
+        <v>2048</v>
+      </c>
+      <c r="E6" s="6"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="6"/>
+      <c r="I6" s="6"/>
+      <c r="J6" s="6"/>
+      <c r="K6" s="6"/>
+      <c r="L6" s="6"/>
+      <c r="M6" s="6"/>
+      <c r="N6" s="6"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B1:N1"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:E8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:E8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="34.625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.75" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.75" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" s="16" customFormat="1" ht="33.75" customHeight="1">
+      <c r="A1" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="B1" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="C1" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="D1" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="E1" s="18" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" s="16" customFormat="1" ht="30">
+      <c r="A2" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="B2" s="19" t="s">
+        <v>42</v>
+      </c>
+      <c r="C2" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="D2" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="E2" s="17" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" s="16" customFormat="1" ht="30">
+      <c r="A3" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="B3" s="19" t="s">
+        <v>42</v>
+      </c>
+      <c r="C3" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="D3" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="E3" s="17" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" s="16" customFormat="1" ht="15">
+      <c r="A4" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="B4" s="20"/>
+      <c r="C4" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="D4" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="E4" s="17" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" s="16" customFormat="1" ht="15">
+      <c r="A5" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="B5" s="20"/>
+      <c r="C5" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="D5" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="E5" s="17" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" s="16" customFormat="1" ht="15">
+      <c r="A6" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="B6" s="20"/>
+      <c r="C6" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="D6" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="E6" s="17" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" s="16" customFormat="1" ht="15">
+      <c r="A7" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="B7" s="20"/>
+      <c r="C7" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="D7" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="E7" s="17" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" s="16" customFormat="1" ht="15">
+      <c r="A8" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="B8" s="20"/>
+      <c r="C8" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="D8" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="E8" s="17" t="s">
+        <v>37</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>